--- a/Example Code/Excel Graph Demo.xlsx
+++ b/Example Code/Excel Graph Demo.xlsx
@@ -14,6 +14,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A:$A</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B:$B</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B:$B</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -164,8 +169,10 @@
             <c:v>Thermal Profile</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>

--- a/Example Code/Excel Graph Demo.xlsx
+++ b/Example Code/Excel Graph Demo.xlsx
@@ -14,19 +14,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A:$A</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B:$B</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B:$B</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -193,20 +191,16 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$B$999</c:f>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B:$B</c:f>
+              <c:f>Sheet1!$B$1:$B$999</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -349,6 +343,7 @@
         <c:axId val="388739360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1068,15 +1063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1408,7 +1403,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>

--- a/Example Code/Excel Graph Demo.xlsx
+++ b/Example Code/Excel Graph Demo.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -115,13 +111,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Thermal</a:t>
+              <a:t>Thermal Profile</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Profile</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -164,7 +155,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Thermal Profile</c:v>
+            <c:v>Temperature</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -191,23 +182,27 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$A$1:$B$999</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$999</c:f>
+              <c:f>Sheet1!$B$1:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="999"/>
+                <c:ptCount val="1000"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0006-4EF3-9599-5D98402B7A3D}"/>
+              <c16:uniqueId val="{00000000-B69A-4CE6-9570-699A1F1020C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -219,11 +214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388738704"/>
-        <c:axId val="388739360"/>
+        <c:axId val="397809560"/>
+        <c:axId val="397804640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388738704"/>
+        <c:axId val="397809560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,15 +330,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388739360"/>
+        <c:crossAx val="397804640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388739360"/>
+        <c:axId val="397804640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -382,8 +376,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>Temperature</a:t>
+                  <a:t>Temperature (</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>°C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -453,7 +454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388738704"/>
+        <c:crossAx val="397809560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1064,21 +1065,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692FF171-DCC2-4411-9665-189F687BB267}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0822B0-E005-455B-90EA-2E2A9B8D7B99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/Example Code/Excel Graph Demo.xlsx
+++ b/Example Code/Excel Graph Demo.xlsx
@@ -23,10 +23,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Temp (*C)</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,13 +72,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,19 +223,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$1000</c:f>
+              <c:f>Sheet1!$A$2:$A$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$1000</c:f>
+              <c:f>Sheet1!$B$2:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -503,7 +543,445 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Relay State</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA1D-4EE7-BE57-759ACC053112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="332527120"/>
+        <c:axId val="332524496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="332527120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332524496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="332524496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Relay State (HIGH/LOW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332527120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1059,20 +1537,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1092,6 +2086,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDEF97A-A509-4693-99B9-0852FED63075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1397,9 +2427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1407,7 +2439,19 @@
     <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Example Code/Excel Graph Demo.xlsx
+++ b/Example Code/Excel Graph Demo.xlsx
@@ -558,6 +558,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Relay State (HIGH/LOW)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -820,7 +845,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>Relay State (HIGH/LOW)</a:t>
+                  <a:t>Relay State</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2058,15 +2083,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2093,16 +2118,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2430,7 +2455,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Example Code/Excel Graph Demo.xlsx
+++ b/Example Code/Excel Graph Demo.xlsx
@@ -2455,7 +2455,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Example Code/Excel Graph Demo.xlsx
+++ b/Example Code/Excel Graph Demo.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Time (s)</t>
   </si>
   <si>
     <t>Temp (*C)</t>
-  </si>
-  <si>
-    <t>Relay</t>
   </si>
 </sst>
 </file>
@@ -543,470 +540,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Relay State (HIGH/LOW)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Relay State</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA1D-4EE7-BE57-759ACC053112}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="332527120"/>
-        <c:axId val="332524496"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="332527120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="332524496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="332524496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Relay State</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="332527120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1562,536 +1096,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2111,42 +1129,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDEF97A-A509-4693-99B9-0852FED63075}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2452,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,15 +1447,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
